--- a/data/nuts3/new_nuts3.xlsx
+++ b/data/nuts3/new_nuts3.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -374,7 +374,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>11040858</t>
+          <t>12041100</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -406,7 +406,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 51</t>
+          <t xml:space="preserve"> 52</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -438,7 +438,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32</t>
+          <t xml:space="preserve"> 33</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 183</t>
+          <t xml:space="preserve"> 198</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -502,17 +502,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 187</t>
+          <t xml:space="preserve"> 195</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>88</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 373</t>
+          <t xml:space="preserve"> 352</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -522,7 +522,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -534,12 +534,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 136</t>
+          <t xml:space="preserve"> 139</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>92</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 64</t>
+          <t xml:space="preserve"> 65</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -694,7 +694,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 93</t>
+          <t xml:space="preserve"> 99</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -726,7 +726,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 192</t>
+          <t xml:space="preserve"> 198</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 107</t>
+          <t xml:space="preserve"> 110</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -790,7 +790,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 180</t>
+          <t xml:space="preserve"> 185</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -822,7 +822,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 72</t>
+          <t xml:space="preserve"> 74</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -854,17 +854,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 233</t>
+          <t xml:space="preserve"> 238</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>81</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 128</t>
+          <t xml:space="preserve"> 127</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -886,7 +886,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3 642</t>
+          <t>3 739</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -901,12 +901,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>90</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>42</t>
         </is>
       </c>
     </row>
@@ -918,17 +918,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 140</t>
+          <t xml:space="preserve"> 141</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>84</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 205</t>
+          <t xml:space="preserve"> 184</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -982,12 +982,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 269</t>
+          <t xml:space="preserve"> 271</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>167</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1014,17 +1014,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 129</t>
+          <t xml:space="preserve"> 134</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>92</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 134</t>
+          <t xml:space="preserve"> 140</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1046,17 +1046,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 76</t>
+          <t xml:space="preserve"> 86</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 120</t>
+          <t xml:space="preserve"> 132</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1078,7 +1078,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 74</t>
+          <t xml:space="preserve"> 76</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1098,7 +1098,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1120,12 +1120,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 45</t>
+          <t xml:space="preserve"> 42</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1142,12 +1142,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 255</t>
+          <t xml:space="preserve"> 264</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>149</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1162,7 +1162,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 27</t>
+          <t xml:space="preserve"> 26</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1206,12 +1206,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 264</t>
+          <t xml:space="preserve"> 294</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>118</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -1238,12 +1238,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24</t>
+          <t xml:space="preserve"> 25</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1270,7 +1270,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 106</t>
+          <t xml:space="preserve"> 109</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 389</t>
+          <t xml:space="preserve"> 474</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1322,7 +1322,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 470</t>
+          <t xml:space="preserve"> 488</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1366,7 +1366,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 170</t>
+          <t xml:space="preserve"> 178</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1386,7 +1386,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -1398,17 +1398,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 99</t>
+          <t xml:space="preserve"> 100</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>56</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 92</t>
+          <t xml:space="preserve"> 82</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1418,7 +1418,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1430,12 +1430,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 344</t>
+          <t xml:space="preserve"> 355</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>148</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1450,7 +1450,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1526,17 +1526,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 224</t>
+          <t xml:space="preserve"> 226</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>164</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 192</t>
+          <t xml:space="preserve"> 188</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1558,7 +1558,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 92</t>
+          <t xml:space="preserve"> 95</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1590,17 +1590,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 66</t>
+          <t xml:space="preserve"> 67</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 95</t>
+          <t xml:space="preserve"> 106</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1632,7 +1632,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24</t>
+          <t xml:space="preserve"> 15</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1654,7 +1654,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 140</t>
+          <t xml:space="preserve"> 144</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1691,12 +1691,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 124</t>
+          <t xml:space="preserve"> 113</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1706,7 +1706,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1814,22 +1814,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 382</t>
+          <t xml:space="preserve"> 403</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>222</t>
+          <t xml:space="preserve"> 257</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 200</t>
+          <t xml:space="preserve"> 205</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -1846,17 +1846,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 679</t>
+          <t xml:space="preserve"> 747</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>261</t>
+          <t xml:space="preserve"> 293</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 473</t>
+          <t xml:space="preserve"> 487</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1866,7 +1866,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -1878,7 +1878,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 64</t>
+          <t xml:space="preserve"> 65</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1910,12 +1910,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 125</t>
+          <t xml:space="preserve"> 126</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>51</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1942,12 +1942,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1 402</t>
+          <t>1 454</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>514</t>
+          <t>544</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1957,12 +1957,12 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
     </row>
@@ -1974,17 +1974,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 79</t>
+          <t xml:space="preserve"> 81</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 51</t>
+          <t xml:space="preserve"> 58</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2016,7 +2016,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 469</t>
+          <t xml:space="preserve"> 471</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2038,12 +2038,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 112</t>
+          <t xml:space="preserve"> 120</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2070,17 +2070,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 165</t>
+          <t xml:space="preserve"> 170</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>120</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 95</t>
+          <t xml:space="preserve"> 91</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2090,7 +2090,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -2107,7 +2107,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2134,22 +2134,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 268</t>
+          <t xml:space="preserve"> 271</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>128</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 765</t>
+          <t xml:space="preserve"> 769</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -2267,12 +2267,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 36</t>
+          <t xml:space="preserve"> 32</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2294,12 +2294,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 99</t>
+          <t xml:space="preserve"> 120</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>48</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2326,7 +2326,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 241</t>
+          <t xml:space="preserve"> 248</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2346,7 +2346,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -2358,12 +2358,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 425</t>
+          <t xml:space="preserve"> 451</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>217</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2378,7 +2378,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 280</t>
+          <t xml:space="preserve"> 290</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2486,7 +2486,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 474</t>
+          <t xml:space="preserve"> 484</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2496,7 +2496,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 940</t>
+          <t>1 007</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2518,12 +2518,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 765</t>
+          <t xml:space="preserve"> 770</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>373</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2538,7 +2538,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -2550,17 +2550,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 85</t>
+          <t xml:space="preserve"> 87</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 184</t>
+          <t xml:space="preserve"> 158</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2614,12 +2614,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 527</t>
+          <t xml:space="preserve"> 538</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>256</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2629,7 +2629,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -2646,17 +2646,17 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 525</t>
+          <t xml:space="preserve"> 549</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>294</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>1 217</t>
+          <t xml:space="preserve"> 995</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2666,7 +2666,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -2678,12 +2678,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 437</t>
+          <t xml:space="preserve"> 447</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>208</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2698,7 +2698,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -2710,22 +2710,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 750</t>
+          <t xml:space="preserve"> 760</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>362</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 255</t>
+          <t xml:space="preserve"> 226</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -2742,17 +2742,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 309</t>
+          <t xml:space="preserve"> 321</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>177</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 412</t>
+          <t xml:space="preserve"> 378</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2774,17 +2774,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 593</t>
+          <t xml:space="preserve"> 606</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>304</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 582</t>
+          <t xml:space="preserve"> 519</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2794,7 +2794,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -2838,12 +2838,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 228</t>
+          <t xml:space="preserve"> 238</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2870,12 +2870,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 537</t>
+          <t xml:space="preserve"> 544</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>319</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2902,12 +2902,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 141</t>
+          <t xml:space="preserve"> 149</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>79</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2934,17 +2934,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 302</t>
+          <t xml:space="preserve"> 312</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>127</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>1 181</t>
+          <t>1 166</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -2954,7 +2954,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -2966,12 +2966,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>1 537</t>
+          <t>1 573</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>974</t>
+          <t>1041</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2986,7 +2986,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>51</t>
         </is>
       </c>
     </row>
@@ -2998,12 +2998,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 267</t>
+          <t xml:space="preserve"> 282</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>121</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3030,7 +3030,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 93</t>
+          <t xml:space="preserve"> 97</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3062,7 +3062,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 481</t>
+          <t xml:space="preserve"> 488</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3077,7 +3077,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -3094,12 +3094,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 180</t>
+          <t xml:space="preserve"> 189</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>69</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3126,17 +3126,17 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 401</t>
+          <t xml:space="preserve"> 421</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>180</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 450</t>
+          <t xml:space="preserve"> 479</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -3158,12 +3158,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>1 993</t>
+          <t>2 016</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>1151</t>
+          <t>1185</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -3173,12 +3173,12 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>47</t>
         </is>
       </c>
     </row>
@@ -3190,17 +3190,17 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 315</t>
+          <t xml:space="preserve"> 321</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>194</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>1 084</t>
+          <t>1 062</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -3222,12 +3222,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 161</t>
+          <t xml:space="preserve"> 167</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>76</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3254,12 +3254,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 546</t>
+          <t xml:space="preserve"> 571</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>191</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -3274,7 +3274,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -3286,17 +3286,17 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 290</t>
+          <t xml:space="preserve"> 335</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>64</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 741</t>
+          <t xml:space="preserve"> 663</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -3318,12 +3318,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 805</t>
+          <t xml:space="preserve"> 826</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>375</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3350,12 +3350,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 463</t>
+          <t xml:space="preserve"> 477</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>251</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3365,7 +3365,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -3382,17 +3382,17 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 344</t>
+          <t xml:space="preserve"> 364</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>185</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 440</t>
+          <t xml:space="preserve"> 473</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -3414,17 +3414,17 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 131</t>
+          <t xml:space="preserve"> 130</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>77</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 143</t>
+          <t xml:space="preserve"> 126</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -3446,7 +3446,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 606</t>
+          <t xml:space="preserve"> 609</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3478,17 +3478,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 371</t>
+          <t xml:space="preserve"> 374</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>204</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 417</t>
+          <t xml:space="preserve"> 403</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -3510,17 +3510,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 134</t>
+          <t xml:space="preserve"> 141</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>57</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 173</t>
+          <t xml:space="preserve"> 194</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -3530,7 +3530,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3542,17 +3542,17 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 372</t>
+          <t xml:space="preserve"> 389</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>153</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 476</t>
+          <t xml:space="preserve"> 514</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -3562,7 +3562,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -3579,7 +3579,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>128</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3589,12 +3589,12 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -3606,12 +3606,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 669</t>
+          <t xml:space="preserve"> 687</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>396</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3638,7 +3638,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 129</t>
+          <t xml:space="preserve"> 144</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3648,7 +3648,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 690</t>
+          <t xml:space="preserve"> 703</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -3670,17 +3670,17 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 688</t>
+          <t xml:space="preserve"> 763</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>231</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>1 030</t>
+          <t>1 058</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -3690,7 +3690,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>26</t>
         </is>
       </c>
     </row>
@@ -3702,17 +3702,17 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 518</t>
+          <t xml:space="preserve"> 527</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>365</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 519</t>
+          <t xml:space="preserve"> 503</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -3722,7 +3722,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -3734,17 +3734,17 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 909</t>
+          <t xml:space="preserve"> 923</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>378</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>3 000</t>
+          <t>3 500</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -3766,12 +3766,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 346</t>
+          <t xml:space="preserve"> 364</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>197</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3781,7 +3781,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -3798,12 +3798,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 221</t>
+          <t xml:space="preserve"> 226</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>76</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3830,12 +3830,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 305</t>
+          <t xml:space="preserve"> 310</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>163</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3894,12 +3894,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>1 465</t>
+          <t>1 508</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>826</t>
+          <t>854</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3914,7 +3914,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>50</t>
         </is>
       </c>
     </row>
@@ -3926,17 +3926,17 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 900</t>
+          <t xml:space="preserve"> 951</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>362</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 541</t>
+          <t xml:space="preserve"> 559</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -3946,7 +3946,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -3990,7 +3990,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 469</t>
+          <t xml:space="preserve"> 487</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4027,7 +4027,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>264</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -4118,7 +4118,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 261</t>
+          <t xml:space="preserve"> 265</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4150,7 +4150,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 108</t>
+          <t xml:space="preserve"> 114</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4182,12 +4182,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 285</t>
+          <t xml:space="preserve"> 290</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>162</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -4197,7 +4197,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -4246,7 +4246,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 256</t>
+          <t xml:space="preserve"> 262</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -4266,7 +4266,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -4278,12 +4278,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 181</t>
+          <t xml:space="preserve"> 182</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -4310,12 +4310,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 283</t>
+          <t xml:space="preserve"> 301</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>113</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -4342,7 +4342,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 158</t>
+          <t xml:space="preserve"> 162</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -4374,7 +4374,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 208</t>
+          <t xml:space="preserve"> 211</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -4394,7 +4394,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4406,12 +4406,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 137</t>
+          <t xml:space="preserve"> 144</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>72</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -4426,7 +4426,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -4438,12 +4438,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 170</t>
+          <t xml:space="preserve"> 186</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -4453,12 +4453,12 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>17</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -4470,17 +4470,17 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 296</t>
+          <t xml:space="preserve"> 311</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>129</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 486</t>
+          <t xml:space="preserve"> 415</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -4490,7 +4490,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -4502,17 +4502,17 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 212</t>
+          <t xml:space="preserve"> 215</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>154</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 289</t>
+          <t xml:space="preserve"> 251</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -4522,7 +4522,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4534,12 +4534,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 336</t>
+          <t xml:space="preserve"> 365</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>83</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -4554,7 +4554,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -4630,12 +4630,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 180</t>
+          <t xml:space="preserve"> 185</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>60</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -4662,12 +4662,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 306</t>
+          <t xml:space="preserve"> 314</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>117</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4694,17 +4694,17 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52</t>
+          <t xml:space="preserve"> 53</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 20</t>
+          <t xml:space="preserve"> 19</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -4714,7 +4714,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4758,7 +4758,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 335</t>
+          <t xml:space="preserve"> 348</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -4778,7 +4778,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -4822,7 +4822,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 109</t>
+          <t xml:space="preserve"> 112</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -4854,7 +4854,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 71</t>
+          <t xml:space="preserve"> 83</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -4864,7 +4864,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 120</t>
+          <t xml:space="preserve"> 170</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -4874,7 +4874,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4886,7 +4886,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 186</t>
+          <t xml:space="preserve"> 193</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -4918,7 +4918,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 247</t>
+          <t xml:space="preserve"> 250</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -4950,12 +4950,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 107</t>
+          <t xml:space="preserve"> 111</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>55</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -5014,12 +5014,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 134</t>
+          <t xml:space="preserve"> 136</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>62</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -5029,7 +5029,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -5051,7 +5051,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>132</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -5110,7 +5110,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 110</t>
+          <t xml:space="preserve"> 111</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -5179,7 +5179,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>93</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -5206,7 +5206,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87</t>
+          <t xml:space="preserve"> 94</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -5238,7 +5238,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 132</t>
+          <t xml:space="preserve"> 135</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -5258,7 +5258,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -5302,7 +5302,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 113</t>
+          <t xml:space="preserve"> 118</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -5322,7 +5322,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -5334,12 +5334,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 80</t>
+          <t xml:space="preserve"> 82</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -5366,7 +5366,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 90</t>
+          <t xml:space="preserve"> 91</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -5398,12 +5398,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 210</t>
+          <t xml:space="preserve"> 214</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>122</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -5494,7 +5494,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 154</t>
+          <t xml:space="preserve"> 164</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -5526,12 +5526,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 347</t>
+          <t xml:space="preserve"> 359</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -5558,12 +5558,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 277</t>
+          <t xml:space="preserve"> 286</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>328</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -5578,7 +5578,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -5590,12 +5590,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 292</t>
+          <t xml:space="preserve"> 302</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>185</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -5610,7 +5610,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -5627,7 +5627,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>55</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -5654,7 +5654,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 197</t>
+          <t xml:space="preserve"> 201</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -5686,7 +5686,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24</t>
+          <t xml:space="preserve"> 25</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -5750,7 +5750,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 131</t>
+          <t xml:space="preserve"> 133</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -5814,7 +5814,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 48</t>
+          <t xml:space="preserve"> 50</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -5824,7 +5824,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94</t>
+          <t xml:space="preserve"> 115</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -5866,7 +5866,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5878,7 +5878,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 81</t>
+          <t xml:space="preserve"> 92</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -5915,7 +5915,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -5942,12 +5942,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 130</t>
+          <t xml:space="preserve"> 133</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>68</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -5974,12 +5974,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94</t>
+          <t xml:space="preserve"> 95</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -5989,7 +5989,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -6006,7 +6006,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 274</t>
+          <t xml:space="preserve"> 275</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -6016,7 +6016,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>2 219</t>
+          <t>2 338</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -6038,12 +6038,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 130</t>
+          <t xml:space="preserve"> 134</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>56</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -6070,7 +6070,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 27</t>
+          <t xml:space="preserve"> 34</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -6102,12 +6102,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 440</t>
+          <t xml:space="preserve"> 445</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>371</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -6122,7 +6122,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -6134,7 +6134,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 137</t>
+          <t xml:space="preserve"> 141</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -6166,7 +6166,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 402</t>
+          <t xml:space="preserve"> 407</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -6186,7 +6186,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -6198,12 +6198,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>1 100</t>
+          <t>1 168</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>361</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -6218,7 +6218,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>27</t>
         </is>
       </c>
     </row>
@@ -6235,12 +6235,12 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>214</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 262</t>
+          <t xml:space="preserve"> 238</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -6262,7 +6262,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 840</t>
+          <t xml:space="preserve"> 858</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -6282,7 +6282,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>24</t>
         </is>
       </c>
     </row>
@@ -6294,12 +6294,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 497</t>
+          <t xml:space="preserve"> 539</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>284</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -6314,7 +6314,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -6326,7 +6326,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 467</t>
+          <t xml:space="preserve"> 475</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -6358,12 +6358,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 260</t>
+          <t xml:space="preserve"> 293</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>105</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -6378,7 +6378,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -6390,7 +6390,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>1 299</t>
+          <t>1 394</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -6410,7 +6410,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>47</t>
         </is>
       </c>
     </row>
@@ -6422,7 +6422,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 812</t>
+          <t xml:space="preserve"> 835</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -6442,7 +6442,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>37</t>
         </is>
       </c>
     </row>
@@ -6454,7 +6454,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 404</t>
+          <t xml:space="preserve"> 422</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -6486,12 +6486,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 629</t>
+          <t xml:space="preserve"> 639</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>338</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -6506,7 +6506,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
     </row>
@@ -6518,17 +6518,17 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 264</t>
+          <t xml:space="preserve"> 267</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>146</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 308</t>
+          <t xml:space="preserve"> 267</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -6550,12 +6550,12 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 331</t>
+          <t xml:space="preserve"> 360</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>122</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -6570,7 +6570,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -6614,7 +6614,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 639</t>
+          <t xml:space="preserve"> 652</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -6646,7 +6646,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 644</t>
+          <t xml:space="preserve"> 651</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -6678,12 +6678,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 291</t>
+          <t xml:space="preserve"> 306</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>112</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -6710,12 +6710,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 762</t>
+          <t xml:space="preserve"> 811</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>246</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -6730,7 +6730,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -6742,12 +6742,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 360</t>
+          <t xml:space="preserve"> 386</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>152</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -6774,12 +6774,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 464</t>
+          <t xml:space="preserve"> 476</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>225</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -6789,12 +6789,12 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -6806,7 +6806,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>1 262</t>
+          <t>1 289</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -6826,7 +6826,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>28</t>
         </is>
       </c>
     </row>
@@ -6838,7 +6838,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 280</t>
+          <t xml:space="preserve"> 296</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -6870,12 +6870,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 379</t>
+          <t xml:space="preserve"> 383</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>191</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -6902,12 +6902,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 185</t>
+          <t xml:space="preserve"> 195</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>93</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -6934,7 +6934,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 778</t>
+          <t xml:space="preserve"> 815</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -6998,12 +6998,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 106</t>
+          <t xml:space="preserve"> 107</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -7030,12 +7030,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 411</t>
+          <t xml:space="preserve"> 417</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>262</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -7094,7 +7094,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 958</t>
+          <t xml:space="preserve"> 987</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -7114,7 +7114,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -7126,7 +7126,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 854</t>
+          <t xml:space="preserve"> 864</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -7158,17 +7158,17 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 766</t>
+          <t xml:space="preserve"> 778</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>479</t>
+          <t>497</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 759</t>
+          <t xml:space="preserve"> 697</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -7210,7 +7210,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -7254,12 +7254,12 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 362</t>
+          <t xml:space="preserve"> 370</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>145</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -7286,12 +7286,12 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 605</t>
+          <t xml:space="preserve"> 623</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>301</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -7306,7 +7306,7 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
     </row>
@@ -7318,7 +7318,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>1 172</t>
+          <t>1 189</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -7338,7 +7338,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -7350,7 +7350,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>1 086</t>
+          <t>1 105</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -7365,7 +7365,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -7382,17 +7382,17 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 357</t>
+          <t xml:space="preserve"> 368</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>71</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 277</t>
+          <t xml:space="preserve"> 266</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -7414,7 +7414,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 213</t>
+          <t xml:space="preserve"> 215</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -7434,7 +7434,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -7446,12 +7446,12 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 236</t>
+          <t xml:space="preserve"> 248</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>109</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -7466,7 +7466,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -7478,12 +7478,12 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 687</t>
+          <t xml:space="preserve"> 717</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>224</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -7493,12 +7493,12 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
     </row>
@@ -7510,7 +7510,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 219</t>
+          <t xml:space="preserve"> 226</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -7530,7 +7530,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -7542,7 +7542,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 415</t>
+          <t xml:space="preserve"> 419</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -7574,7 +7574,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 50</t>
+          <t xml:space="preserve"> 59</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -7606,7 +7606,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 291</t>
+          <t xml:space="preserve"> 322</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -7626,7 +7626,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -7638,7 +7638,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 86</t>
+          <t xml:space="preserve"> 89</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -7670,7 +7670,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 331</t>
+          <t xml:space="preserve"> 349</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -7766,12 +7766,12 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 294</t>
+          <t xml:space="preserve"> 309</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>202</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -7798,17 +7798,17 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 301</t>
+          <t xml:space="preserve"> 312</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>140</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 364</t>
+          <t xml:space="preserve"> 386</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -7830,7 +7830,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 164</t>
+          <t xml:space="preserve"> 170</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -7840,7 +7840,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 229</t>
+          <t xml:space="preserve"> 237</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -7862,7 +7862,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 332</t>
+          <t xml:space="preserve"> 341</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -7894,7 +7894,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 136</t>
+          <t xml:space="preserve"> 130</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -7926,7 +7926,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 327</t>
+          <t xml:space="preserve"> 332</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -7946,7 +7946,7 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -7978,7 +7978,7 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -8022,27 +8022,27 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 219</t>
+          <t xml:space="preserve"> 221</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>88</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 159</t>
+          <t xml:space="preserve"> 196</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -8054,7 +8054,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 340</t>
+          <t xml:space="preserve"> 343</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -8118,7 +8118,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 119</t>
+          <t xml:space="preserve"> 128</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -8150,12 +8150,12 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 667</t>
+          <t xml:space="preserve"> 681</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>376</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -8170,7 +8170,7 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -8182,7 +8182,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 187</t>
+          <t xml:space="preserve"> 190</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -8278,7 +8278,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 253</t>
+          <t xml:space="preserve"> 258</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -8310,12 +8310,12 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 341</t>
+          <t xml:space="preserve"> 348</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>212</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -8342,7 +8342,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 169</t>
+          <t xml:space="preserve"> 184</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -8362,7 +8362,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -8374,7 +8374,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 476</t>
+          <t xml:space="preserve"> 491</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -8406,7 +8406,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 179</t>
+          <t xml:space="preserve"> 183</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -8438,7 +8438,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 152</t>
+          <t xml:space="preserve"> 155</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -8470,7 +8470,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 164</t>
+          <t xml:space="preserve"> 173</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -8502,7 +8502,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 801</t>
+          <t xml:space="preserve"> 822</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -8534,27 +8534,27 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 133</t>
+          <t xml:space="preserve"> 132</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 126</t>
+          <t xml:space="preserve"> 124</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -8608,12 +8608,12 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>0</t>
+          <t xml:space="preserve"> 122</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
@@ -8694,7 +8694,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 169</t>
+          <t xml:space="preserve"> 170</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -8714,7 +8714,7 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -8726,7 +8726,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 100</t>
+          <t xml:space="preserve"> 101</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -8758,12 +8758,12 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 71</t>
+          <t xml:space="preserve"> 76</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -8790,12 +8790,12 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 253</t>
+          <t xml:space="preserve"> 256</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>86</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -8810,7 +8810,7 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -8822,12 +8822,12 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 292</t>
+          <t xml:space="preserve"> 305</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>117</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -8842,7 +8842,7 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -8886,12 +8886,12 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 330</t>
+          <t xml:space="preserve"> 351</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>205</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -8906,7 +8906,7 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -8918,7 +8918,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 81</t>
+          <t xml:space="preserve"> 84</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -8950,7 +8950,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 79</t>
+          <t xml:space="preserve"> 82</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -8960,7 +8960,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 226</t>
+          <t xml:space="preserve"> 243</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
@@ -8987,7 +8987,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>53</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -9142,7 +9142,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 145</t>
+          <t xml:space="preserve"> 146</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -9174,7 +9174,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 218</t>
+          <t xml:space="preserve"> 220</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -9206,7 +9206,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 125</t>
+          <t xml:space="preserve"> 130</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -9216,7 +9216,7 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 297</t>
+          <t xml:space="preserve"> 212</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
@@ -9226,7 +9226,7 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -9270,7 +9270,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 456</t>
+          <t xml:space="preserve"> 458</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -9302,12 +9302,12 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 226</t>
+          <t xml:space="preserve"> 229</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -9317,7 +9317,7 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
@@ -9334,12 +9334,12 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 351</t>
+          <t xml:space="preserve"> 362</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>151</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -9349,7 +9349,7 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
@@ -9366,12 +9366,12 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>4 233</t>
+          <t>4 352</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>1920</t>
+          <t>2043</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -9386,7 +9386,7 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>44</t>
         </is>
       </c>
     </row>
@@ -9398,12 +9398,12 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>1 029</t>
+          <t>1 059</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>598</t>
+          <t>609</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -9430,12 +9430,12 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 297</t>
+          <t xml:space="preserve"> 310</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>182</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -9445,12 +9445,12 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -9462,7 +9462,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 165</t>
+          <t xml:space="preserve"> 190</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -9482,7 +9482,7 @@
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -9558,7 +9558,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 544</t>
+          <t xml:space="preserve"> 550</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -9578,7 +9578,7 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -9590,17 +9590,17 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 794</t>
+          <t xml:space="preserve"> 818</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>215</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 620</t>
+          <t xml:space="preserve"> 603</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
@@ -9610,7 +9610,7 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -9654,7 +9654,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 152</t>
+          <t xml:space="preserve"> 153</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -9674,7 +9674,7 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -9686,7 +9686,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 386</t>
+          <t xml:space="preserve"> 406</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -9706,7 +9706,7 @@
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -9733,12 +9733,12 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -9750,12 +9750,12 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 329</t>
+          <t xml:space="preserve"> 342</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>132</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -9782,7 +9782,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 256</t>
+          <t xml:space="preserve"> 275</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -9814,7 +9814,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 119</t>
+          <t xml:space="preserve"> 122</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -9910,7 +9910,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 108</t>
+          <t xml:space="preserve"> 118</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -9942,12 +9942,12 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 248</t>
+          <t xml:space="preserve"> 249</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
@@ -9957,7 +9957,7 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F300" t="inlineStr">
@@ -9974,12 +9974,12 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>1 453</t>
+          <t>1 457</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>220</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
@@ -9989,12 +9989,12 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>50</t>
         </is>
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>42</t>
         </is>
       </c>
     </row>
@@ -10006,7 +10006,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 231</t>
+          <t xml:space="preserve"> 241</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -10026,7 +10026,7 @@
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -10038,12 +10038,12 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 602</t>
+          <t xml:space="preserve"> 621</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>336</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -10134,17 +10134,17 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 105</t>
+          <t xml:space="preserve"> 117</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 250</t>
+          <t xml:space="preserve"> 235</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
@@ -10154,7 +10154,7 @@
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -10166,17 +10166,17 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 303</t>
+          <t xml:space="preserve"> 342</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>88</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 601</t>
+          <t xml:space="preserve"> 706</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
@@ -10198,12 +10198,12 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 456</t>
+          <t xml:space="preserve"> 465</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>282</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -10213,12 +10213,12 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -10230,7 +10230,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 218</t>
+          <t xml:space="preserve"> 244</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -10245,12 +10245,12 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -10262,12 +10262,12 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 290</t>
+          <t xml:space="preserve"> 261</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>55</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -10277,7 +10277,7 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>18</t>
         </is>
       </c>
       <c r="F310" t="inlineStr">
@@ -10294,7 +10294,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 926</t>
+          <t xml:space="preserve"> 955</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -10314,7 +10314,7 @@
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>62</t>
         </is>
       </c>
     </row>
@@ -10326,12 +10326,12 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 715</t>
+          <t xml:space="preserve"> 724</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
@@ -10341,7 +10341,7 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F312" t="inlineStr">
@@ -10358,7 +10358,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 229</t>
+          <t xml:space="preserve"> 232</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -10390,7 +10390,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 183</t>
+          <t xml:space="preserve"> 191</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -10422,12 +10422,12 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 307</t>
+          <t xml:space="preserve"> 309</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>171</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
@@ -10454,7 +10454,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 233</t>
+          <t xml:space="preserve"> 242</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -10474,7 +10474,7 @@
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -10486,7 +10486,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 505</t>
+          <t xml:space="preserve"> 522</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -10506,7 +10506,7 @@
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -10518,12 +10518,12 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 397</t>
+          <t xml:space="preserve"> 402</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>160</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
@@ -10550,17 +10550,17 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 335</t>
+          <t xml:space="preserve"> 338</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>122</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 702</t>
+          <t xml:space="preserve"> 500</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
@@ -10582,12 +10582,12 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 163</t>
+          <t xml:space="preserve"> 165</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>49</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
@@ -10646,7 +10646,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 911</t>
+          <t xml:space="preserve"> 922</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -10661,12 +10661,12 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>59</t>
         </is>
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>38</t>
         </is>
       </c>
     </row>
@@ -10678,12 +10678,12 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 390</t>
+          <t xml:space="preserve"> 398</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>99</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
@@ -10698,7 +10698,7 @@
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -10710,7 +10710,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 277</t>
+          <t xml:space="preserve"> 280</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -10742,12 +10742,12 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 145</t>
+          <t xml:space="preserve"> 149</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>72</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
@@ -10774,12 +10774,12 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>4 446</t>
+          <t>4 553</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>2569</t>
+          <t>2635</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
@@ -10789,12 +10789,12 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>139</t>
         </is>
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>50</t>
         </is>
       </c>
     </row>
@@ -10806,12 +10806,12 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 192</t>
+          <t xml:space="preserve"> 203</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
@@ -10838,17 +10838,17 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 44</t>
+          <t xml:space="preserve"> 45</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 103</t>
+          <t xml:space="preserve"> 100</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
@@ -10870,17 +10870,17 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 35</t>
+          <t xml:space="preserve"> 39</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 63</t>
+          <t xml:space="preserve"> 69</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
@@ -10902,12 +10902,12 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 139</t>
+          <t xml:space="preserve"> 142</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
@@ -10998,7 +10998,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 124</t>
+          <t xml:space="preserve"> 127</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -11030,7 +11030,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 131</t>
+          <t xml:space="preserve"> 132</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -11040,7 +11040,7 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 419</t>
+          <t xml:space="preserve"> 404</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
@@ -11126,7 +11126,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 95</t>
+          <t xml:space="preserve"> 98</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -11158,7 +11158,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 37</t>
+          <t xml:space="preserve"> 39</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -11190,12 +11190,12 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 422</t>
+          <t xml:space="preserve"> 438</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>55</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
@@ -11205,12 +11205,12 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>24</t>
         </is>
       </c>
     </row>
@@ -11222,7 +11222,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 255</t>
+          <t xml:space="preserve"> 273</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -11232,7 +11232,7 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 183</t>
+          <t xml:space="preserve"> 138</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
@@ -11254,7 +11254,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 19</t>
+          <t xml:space="preserve"> 20</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -11318,7 +11318,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 90</t>
+          <t xml:space="preserve"> 91</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -11328,7 +11328,7 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 76</t>
+          <t xml:space="preserve"> 73</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
@@ -11350,17 +11350,17 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24</t>
+          <t xml:space="preserve"> 26</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 119</t>
+          <t xml:space="preserve"> 81</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
@@ -11606,12 +11606,12 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 69</t>
+          <t xml:space="preserve"> 74</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
@@ -11638,17 +11638,17 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 269</t>
+          <t xml:space="preserve"> 284</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>110</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 432</t>
+          <t xml:space="preserve"> 425</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
@@ -11658,7 +11658,7 @@
       </c>
       <c r="F353" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -11670,7 +11670,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 167</t>
+          <t xml:space="preserve"> 171</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -11702,7 +11702,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 485</t>
+          <t xml:space="preserve"> 493</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -11734,7 +11734,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 386</t>
+          <t xml:space="preserve"> 397</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -11744,7 +11744,7 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>1 137</t>
+          <t>1 188</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
@@ -11754,7 +11754,7 @@
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
     </row>
@@ -11766,7 +11766,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 216</t>
+          <t xml:space="preserve"> 219</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -11798,7 +11798,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 458</t>
+          <t xml:space="preserve"> 469</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -11830,7 +11830,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 169</t>
+          <t xml:space="preserve"> 173</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -11840,7 +11840,7 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 294</t>
+          <t xml:space="preserve"> 295</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
@@ -11862,17 +11862,17 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 158</t>
+          <t xml:space="preserve"> 167</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>64</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 258</t>
+          <t xml:space="preserve"> 245</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
@@ -11894,7 +11894,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 206</t>
+          <t xml:space="preserve"> 217</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -11926,17 +11926,17 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94</t>
+          <t xml:space="preserve"> 100</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 177</t>
+          <t xml:space="preserve"> 190</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
@@ -11958,12 +11958,12 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 288</t>
+          <t xml:space="preserve"> 292</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>124</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
@@ -11978,7 +11978,7 @@
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -11990,12 +11990,12 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 204</t>
+          <t xml:space="preserve"> 214</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>88</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
@@ -12022,7 +12022,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 587</t>
+          <t xml:space="preserve"> 598</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -12032,7 +12032,7 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 740</t>
+          <t xml:space="preserve"> 711</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
@@ -12042,7 +12042,7 @@
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -12118,12 +12118,12 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 84</t>
+          <t xml:space="preserve"> 87</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
@@ -12150,7 +12150,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 64</t>
+          <t xml:space="preserve"> 66</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -12214,12 +12214,12 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 245</t>
+          <t xml:space="preserve"> 255</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>87</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
@@ -12234,7 +12234,7 @@
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -12310,7 +12310,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 92</t>
+          <t xml:space="preserve"> 93</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -12342,7 +12342,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 33</t>
+          <t xml:space="preserve"> 34</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -12379,12 +12379,12 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 156</t>
+          <t xml:space="preserve"> 158</t>
         </is>
       </c>
       <c r="E376" t="inlineStr">
@@ -12394,7 +12394,7 @@
       </c>
       <c r="F376" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -12438,7 +12438,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 70</t>
+          <t xml:space="preserve"> 71</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -12470,7 +12470,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 132</t>
+          <t xml:space="preserve"> 137</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -12502,7 +12502,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 34</t>
+          <t xml:space="preserve"> 36</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -12534,12 +12534,12 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 85</t>
+          <t xml:space="preserve"> 94</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
@@ -12549,7 +12549,7 @@
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F381" t="inlineStr">
@@ -12630,12 +12630,12 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 48</t>
+          <t xml:space="preserve"> 51</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
@@ -12662,7 +12662,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 63</t>
+          <t xml:space="preserve"> 65</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -12773,7 +12773,7 @@
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F388" t="inlineStr">
@@ -12795,7 +12795,7 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>77</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
@@ -12854,7 +12854,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32</t>
+          <t xml:space="preserve"> 31</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -12886,12 +12886,12 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 49</t>
+          <t xml:space="preserve"> 50</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
@@ -12918,7 +12918,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 85</t>
+          <t xml:space="preserve"> 88</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -13046,7 +13046,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 47</t>
+          <t xml:space="preserve"> 49</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -13110,17 +13110,17 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 47</t>
+          <t xml:space="preserve"> 51</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 184</t>
+          <t xml:space="preserve"> 153</t>
         </is>
       </c>
       <c r="E399" t="inlineStr">
@@ -13142,7 +13142,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32</t>
+          <t xml:space="preserve"> 33</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -13157,7 +13157,7 @@
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F400" t="inlineStr">
@@ -13206,7 +13206,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 58</t>
+          <t xml:space="preserve"> 59</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -13262,7 +13262,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 59</t>
+          <t>129</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -13294,7 +13294,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -13354,7 +13354,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -13411,7 +13411,7 @@
       <c r="B409" t="inlineStr"/>
       <c r="C409" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>237</t>
         </is>
       </c>
       <c r="D409" t="inlineStr">
@@ -13439,7 +13439,7 @@
       <c r="B410" t="inlineStr"/>
       <c r="C410" t="inlineStr">
         <is>
-          <t>1032</t>
+          <t>1144</t>
         </is>
       </c>
       <c r="D410" t="inlineStr">
@@ -13467,7 +13467,7 @@
       <c r="B411" t="inlineStr"/>
       <c r="C411" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>367</t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
@@ -13495,7 +13495,7 @@
       <c r="B412" t="inlineStr"/>
       <c r="C412" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
@@ -13523,7 +13523,7 @@
       <c r="B413" t="inlineStr"/>
       <c r="C413" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>85</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
@@ -13551,7 +13551,7 @@
       <c r="B414" t="inlineStr"/>
       <c r="C414" t="inlineStr">
         <is>
-          <t>1288</t>
+          <t>1817</t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
@@ -13579,7 +13579,7 @@
       <c r="B415" t="inlineStr"/>
       <c r="C415" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>624</t>
         </is>
       </c>
       <c r="D415" t="inlineStr">
@@ -13607,7 +13607,7 @@
       <c r="B416" t="inlineStr"/>
       <c r="C416" t="inlineStr">
         <is>
-          <t>1032</t>
+          <t>1274</t>
         </is>
       </c>
       <c r="D416" t="inlineStr">
@@ -13675,6 +13675,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>